--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,53; 34,8</t>
+          <t>12,57; 35,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,77; 32,46</t>
+          <t>10,18; 34,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,93; 17,52</t>
+          <t>2,61; 19,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,31; 20,38</t>
+          <t>4,7; 20,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,69</t>
+          <t>1,83; 10,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 18,65</t>
+          <t>6,15; 17,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,17; 23,2</t>
+          <t>9,65; 23,12</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,47; 16,98</t>
+          <t>6,14; 17,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,97; 14,96</t>
+          <t>6,09; 14,7</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 13,49</t>
+          <t>1,16; 15,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 16,24</t>
+          <t>2,84; 16,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,74; 11,76</t>
+          <t>1,0; 11,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 19,7</t>
+          <t>4,42; 18,74</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,79; 13,93</t>
+          <t>3,89; 13,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,96; 9,03</t>
+          <t>2,01; 8,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 6,98</t>
+          <t>1,67; 7,18</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,78; 14,33</t>
+          <t>3,68; 14,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 11,29</t>
+          <t>3,7; 11,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 9,93</t>
+          <t>3,29; 10,29</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,65</t>
+          <t>1,82; 6,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 13,88</t>
+          <t>5,05; 13,6</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 18,58</t>
+          <t>1,75; 16,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,21; 11,15</t>
+          <t>1,19; 10,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,63; 16,19</t>
+          <t>3,72; 16,67</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 15,37</t>
+          <t>2,34; 15,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 8,33</t>
+          <t>0,88; 7,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,48</t>
+          <t>0,71; 9,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,82; 10,71</t>
+          <t>1,84; 10,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 15,64</t>
+          <t>4,82; 14,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,72; 8,63</t>
+          <t>1,77; 8,8</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,92</t>
+          <t>1,68; 7,44</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,58</t>
+          <t>3,56; 9,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 12,46</t>
+          <t>4,77; 12,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 14,13</t>
+          <t>1,73; 14,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,01; 13,28</t>
+          <t>3,09; 14,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,79</t>
+          <t>1,09; 10,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 20,43</t>
+          <t>4,96; 22,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 8,6</t>
+          <t>1,51; 9,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,19</t>
+          <t>0,92; 5,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 17,28</t>
+          <t>4,9; 17,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 13,59</t>
+          <t>3,23; 12,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 7,58</t>
+          <t>2,04; 8,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,31; 7,19</t>
+          <t>2,2; 7,1</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 12,14</t>
+          <t>4,26; 12,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 13,02</t>
+          <t>5,09; 13,14</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,9</t>
+          <t>0,0; 11,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,45</t>
+          <t>1,91; 16,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 33,39</t>
+          <t>3,28; 31,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 23,07</t>
+          <t>0,0; 24,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,05; 14,39</t>
+          <t>1,39; 13,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 12,71</t>
+          <t>2,25; 13,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,87</t>
+          <t>0,0; 11,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,43; 27,88</t>
+          <t>5,54; 26,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,97</t>
+          <t>2,36; 11,44</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,37; 11,29</t>
+          <t>3,38; 11,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,39; 15,95</t>
+          <t>2,4; 14,91</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 20,42</t>
+          <t>5,36; 21,12</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 19,77</t>
+          <t>2,0; 18,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1434,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,98</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,96</t>
+          <t>0,84; 7,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,17</t>
+          <t>0,0; 5,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,76</t>
+          <t>0,77; 7,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 13,99</t>
+          <t>2,81; 14,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,78</t>
+          <t>1,41; 7,84</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,12 +1474,12 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 5,21</t>
+          <t>1,24; 5,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,29</t>
+          <t>2,35; 8,98</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,76</t>
+          <t>2,58; 9,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,64; 11,67</t>
+          <t>3,74; 11,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 12,58</t>
+          <t>2,5; 11,68</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,22; 23,84</t>
+          <t>8,9; 23,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,42; 9,11</t>
+          <t>2,17; 8,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 10,99</t>
+          <t>3,61; 11,31</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 9,27</t>
+          <t>2,65; 9,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,67; 21,87</t>
+          <t>11,17; 21,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,02; 7,83</t>
+          <t>3,18; 8,34</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,64; 9,68</t>
+          <t>4,61; 10,15</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 8,25</t>
+          <t>3,3; 8,54</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,9</t>
+          <t>11,94; 20,4</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,41; 11,66</t>
+          <t>3,61; 11,41</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 11,15</t>
+          <t>2,06; 10,79</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,37; 13,22</t>
+          <t>5,32; 13,15</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,22; 12,51</t>
+          <t>3,09; 13,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,43</t>
+          <t>3,2; 9,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,97</t>
+          <t>1,33; 5,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,82; 12,19</t>
+          <t>4,65; 11,63</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,0; 8,39</t>
+          <t>3,02; 8,09</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,94; 8,93</t>
+          <t>3,93; 8,97</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,37</t>
+          <t>2,16; 6,44</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,81; 11,33</t>
+          <t>5,82; 10,87</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,25</t>
+          <t>3,77; 8,51</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,44</t>
+          <t>5,14; 9,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,03; 7,95</t>
+          <t>3,94; 7,71</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,36</t>
+          <t>5,64; 9,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,99; 12,01</t>
+          <t>6,98; 11,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,92</t>
+          <t>3,95; 6,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,13</t>
+          <t>2,82; 5,15</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,36</t>
+          <t>4,4; 7,14</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,68; 11,22</t>
+          <t>7,65; 11,17</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,12</t>
+          <t>4,89; 7,2</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,61; 5,61</t>
+          <t>3,6; 5,61</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,29; 7,68</t>
+          <t>5,34; 7,57</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,99; 10,74</t>
+          <t>7,88; 10,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,57; 35,78</t>
+          <t>11,49; 34,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,18; 34,19</t>
+          <t>11,25; 33,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,7; 20,48</t>
+          <t>4,59; 20,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,83; 10,38</t>
+          <t>1,85; 10,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,65; 23,12</t>
+          <t>9,6; 22,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,14; 17,13</t>
+          <t>6,76; 17,61</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,16; 15,47</t>
+          <t>1,14; 13,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 16,42</t>
+          <t>3,3; 16,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,15</t>
+          <t>1,72; 11,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,89; 13,24</t>
+          <t>3,8; 13,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 8,82</t>
+          <t>2,01; 9,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,18</t>
+          <t>1,22; 7,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,7; 11,02</t>
+          <t>3,72; 11,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,29</t>
+          <t>3,17; 9,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,82; 6,87</t>
+          <t>1,86; 6,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 16,24</t>
+          <t>1,75; 19,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 10,86</t>
+          <t>1,18; 11,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 16,67</t>
+          <t>3,68; 16,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 7,58</t>
+          <t>0,87; 7,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 9,34</t>
+          <t>0,71; 8,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,84; 10,08</t>
+          <t>1,85; 10,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,77; 8,8</t>
+          <t>1,6; 8,81</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 7,44</t>
+          <t>1,67; 7,52</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,99</t>
+          <t>3,65; 10,68</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,73; 14,58</t>
+          <t>1,69; 14,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,09; 14,1</t>
+          <t>3,02; 13,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 10,95</t>
+          <t>1,09; 11,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 9,19</t>
+          <t>1,48; 8,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,23</t>
+          <t>0,92; 5,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 17,13</t>
+          <t>4,8; 16,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,29</t>
+          <t>2,1; 8,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 7,1</t>
+          <t>2,07; 6,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 12,52</t>
+          <t>4,44; 12,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,67</t>
+          <t>0,0; 12,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 16,03</t>
+          <t>1,92; 16,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,28; 31,8</t>
+          <t>3,31; 30,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 13,45</t>
+          <t>2,03; 15,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 13,23</t>
+          <t>2,3; 14,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,92</t>
+          <t>0,0; 13,22</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,44</t>
+          <t>2,29; 11,11</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,67</t>
+          <t>3,4; 11,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 14,91</t>
+          <t>2,37; 15,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 18,04</t>
+          <t>2,02; 18,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 5,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,57</t>
+          <t>0,0; 5,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,77; 7,63</t>
+          <t>0,76; 7,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 7,84</t>
+          <t>1,39; 7,79</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,52</t>
+          <t>1,21; 5,22</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,83</t>
+          <t>2,68; 10,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,74; 11,74</t>
+          <t>3,96; 11,56</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,68</t>
+          <t>2,12; 11,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 8,47</t>
+          <t>2,39; 8,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,31</t>
+          <t>3,56; 11,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,32</t>
+          <t>2,53; 8,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,18; 8,34</t>
+          <t>2,83; 7,73</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,15</t>
+          <t>4,39; 9,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,54</t>
+          <t>3,25; 8,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,61; 11,41</t>
+          <t>3,18; 11,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 10,79</t>
+          <t>2,07; 10,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 13,15</t>
+          <t>5,54; 13,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,2; 9,9</t>
+          <t>3,3; 9,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,33; 5,79</t>
+          <t>0,95; 6,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,65; 11,63</t>
+          <t>4,67; 12,26</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,97</t>
+          <t>4,08; 8,93</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,16; 6,44</t>
+          <t>2,2; 6,98</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,87</t>
+          <t>5,85; 11,05</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,46</t>
+          <t>5,37; 9,29</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,94; 7,71</t>
+          <t>4,11; 7,65</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,64; 9,39</t>
+          <t>5,63; 9,58</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,79</t>
+          <t>3,84; 6,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,15</t>
+          <t>2,75; 5,09</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,14</t>
+          <t>4,49; 7,34</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,2</t>
+          <t>4,83; 7,26</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 5,61</t>
+          <t>3,54; 5,63</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,34; 7,57</t>
+          <t>5,26; 7,48</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>15,21%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>2,43%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,49; 34,75</t>
+          <t>1,88; 6,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,25; 33,1</t>
+          <t>2,49; 8,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 19,31</t>
+          <t>0,68; 4,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,59; 20,89</t>
+          <t>1,01; 5,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,85; 10,19</t>
+          <t>0,57; 3,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,7</t>
+          <t>1,64; 4,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,6; 22,75</t>
+          <t>2,05; 5,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,76; 17,61</t>
+          <t>1,87; 5,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,09; 14,7</t>
+          <t>1,54; 4,14</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>7,68%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>1,54%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 13,79</t>
+          <t>0,2; 2,71</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 16,85</t>
+          <t>0,6; 3,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 11,43</t>
+          <t>0,21; 2,41</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,42; 18,74</t>
+          <t>0,71; 3,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 13,11</t>
+          <t>1,02; 3,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 9,28</t>
+          <t>0,59; 2,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 7,09</t>
+          <t>0,42; 2,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,68; 14,04</t>
+          <t>0,67; 2,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 11,57</t>
+          <t>0,85; 2,46</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,17; 9,84</t>
+          <t>0,82; 2,62</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 6,66</t>
+          <t>0,52; 2,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 13,6</t>
+          <t>0,9; 2,58</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,76%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,58%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,75; 19,44</t>
+          <t>0,0; 3,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 11,46</t>
+          <t>0,29; 2,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,68; 16,4</t>
+          <t>0,85; 3,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 15,02</t>
+          <t>0,41; 3,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,45</t>
+          <t>0,26; 2,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 8,47</t>
+          <t>0,29; 4,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,85; 10,91</t>
+          <t>0,55; 3,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,99</t>
+          <t>0,97; 3,49</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 8,81</t>
+          <t>0,3; 2,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 7,52</t>
+          <t>0,57; 2,49</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 10,68</t>
+          <t>0,88; 2,87</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,77; 12,73</t>
+          <t>0,96; 2,72</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,48%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>8,37%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 14,38</t>
+          <t>0,25; 2,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,88</t>
+          <t>0,55; 2,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 11,82</t>
+          <t>0,26; 2,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,96; 22,16</t>
+          <t>1,07; 5,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,45</t>
+          <t>0,48; 2,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,17</t>
+          <t>0,28; 1,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,8; 16,0</t>
+          <t>1,79; 6,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 12,79</t>
+          <t>1,0; 3,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 8,05</t>
+          <t>0,39; 1,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,6</t>
+          <t>0,53; 1,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,44; 12,86</t>
+          <t>1,25; 3,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,09; 13,14</t>
+          <t>1,32; 3,77</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,5%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,82%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,34%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>2,11%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>10,56%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,75</t>
+          <t>0,0; 2,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,92; 16,16</t>
+          <t>0,48; 4,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,31; 30,53</t>
+          <t>0,45; 4,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,35</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 15,9</t>
+          <t>0,5; 5,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 14,23</t>
+          <t>0,94; 5,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,22</t>
+          <t>0,0; 3,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,54; 26,9</t>
+          <t>0,75; 4,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,11</t>
+          <t>0,68; 3,49</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,33</t>
+          <t>1,1; 3,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,45</t>
+          <t>0,46; 3,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 21,12</t>
+          <t>0,6; 2,58</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,78%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>1,04%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,02; 18,29</t>
+          <t>0,36; 3,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>0; 0,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,97</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,84; 7,19</t>
+          <t>0,17; 1,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,48</t>
+          <t>0,0; 1,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>0; 0,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,76; 7,0</t>
+          <t>0,36; 3,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,81; 14,71</t>
+          <t>0,64; 3,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,39; 7,79</t>
+          <t>0,33; 1,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,22</t>
+          <t>0,39; 2,55</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 8,98</t>
+          <t>0,55; 2,13</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,11%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,68; 10,39</t>
+          <t>0,62; 2,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,56</t>
+          <t>0,9; 2,96</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,12; 11,23</t>
+          <t>0,54; 2,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,9; 23,48</t>
+          <t>2,06; 5,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 8,7</t>
+          <t>0,73; 2,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,56; 11,24</t>
+          <t>1,27; 3,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,53; 8,99</t>
+          <t>0,73; 2,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 21,27</t>
+          <t>2,52; 5,78</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,73</t>
+          <t>0,87; 2,36</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,97</t>
+          <t>1,31; 2,98</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,25; 8,53</t>
+          <t>0,8; 2,1</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,94; 20,4</t>
+          <t>2,8; 5,33</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,57%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,53%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>1,74%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>1,33%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,18; 11,57</t>
+          <t>0,88; 2,8</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,07; 10,82</t>
+          <t>0,42; 2,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,54; 13,46</t>
+          <t>1,47; 3,84</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,09; 13,05</t>
+          <t>0,56; 2,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,9</t>
+          <t>1,01; 3,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,95; 6,04</t>
+          <t>0,25; 1,54</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 12,26</t>
+          <t>1,62; 4,17</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,02; 8,09</t>
+          <t>0,8; 2,35</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,08; 8,93</t>
+          <t>1,16; 2,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,2; 6,98</t>
+          <t>0,5; 1,57</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,85; 11,05</t>
+          <t>1,78; 3,5</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,51</t>
+          <t>0,85; 1,99</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,29%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>9,32%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,29</t>
+          <t>1,05; 1,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 7,65</t>
+          <t>0,92; 1,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 9,58</t>
+          <t>1,39; 2,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6,98; 11,84</t>
+          <t>1,38; 2,42</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,82</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,09</t>
+          <t>0,86; 1,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,49; 7,34</t>
+          <t>1,43; 2,37</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>7,65; 11,17</t>
+          <t>1,81; 2,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,26</t>
+          <t>1,26; 1,87</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>3,54; 5,63</t>
+          <t>0,99; 1,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,48</t>
+          <t>1,54; 2,18</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>7,88; 10,84</t>
+          <t>1,72; 2,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,35%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,76</t>
+          <t>0,67; 4,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,82</t>
+          <t>1,63; 4,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,16; 1,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 4,14</t>
+          <t>1,47; 4,1</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,48%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,13</t>
+          <t>0,66; 2,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,76</t>
+          <t>0,67; 2,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,58</t>
+          <t>0,87; 2,44</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,69%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,1</t>
+          <t>0,41; 3,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,49</t>
+          <t>0,95; 3,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,72</t>
+          <t>0,95; 2,7</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,61</t>
+          <t>0,8; 4,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,18</t>
+          <t>1,05; 5,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,65</t>
+          <t>0,24; 2,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,75</t>
+          <t>0,75; 3,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,53; 1,83</t>
+          <t>0,7; 2,95</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,77</t>
+          <t>1,13; 3,44</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 4,09</t>
+          <t>0,75; 3,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,58</t>
+          <t>0,59; 2,47</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,02%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,63</t>
+          <t>0,17; 1,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,42</t>
+          <t>0,64; 3,4</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,13</t>
+          <t>0,54; 2,08</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,59%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,86</t>
+          <t>2,06; 5,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,78</t>
+          <t>1,71; 5,42</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,8; 5,33</t>
+          <t>2,26; 4,94</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,46</t>
+          <t>0,27; 1,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,35</t>
+          <t>0,82; 2,39</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,85; 1,99</t>
+          <t>0,65; 1,79</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,95%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,38; 2,42</t>
+          <t>1,24; 2,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,79</t>
+          <t>1,71; 2,7</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,41</t>
+          <t>1,6; 2,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 6,65</t>
+          <t>2,02; 6,97</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,84</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 8,0</t>
+          <t>2,3; 7,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,79</t>
+          <t>0,59; 4,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 5,14</t>
+          <t>1,18; 5,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,47</t>
+          <t>0,0; 2,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 3,42</t>
+          <t>0,58; 3,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,63; 4,76</t>
+          <t>1,68; 4,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 5,27</t>
+          <t>1,98; 4,96</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,16; 1,39</t>
+          <t>0,16; 1,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,05</t>
+          <t>1,83; 5,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,1</t>
+          <t>1,38; 3,91</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,71</t>
+          <t>0,2; 2,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,5</t>
+          <t>0,61; 3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,41</t>
+          <t>0,22; 2,52</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 2,98</t>
+          <t>0,67; 2,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,75</t>
+          <t>1,0; 3,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,76</t>
+          <t>0,59; 2,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,43</t>
+          <t>0,42; 2,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,66</t>
+          <t>0,68; 2,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,46</t>
+          <t>0,88; 2,52</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,62</t>
+          <t>0,88; 2,63</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,52; 2,03</t>
+          <t>0,59; 2,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,44</t>
+          <t>0,86; 2,35</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,36</t>
+          <t>0,3; 2,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,7</t>
+          <t>0,29; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,9</t>
+          <t>0,86; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,13</t>
+          <t>0,51; 3,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,25</t>
+          <t>0,26; 2,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 4,0</t>
+          <t>0,29; 3,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,43</t>
+          <t>0,58; 3,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,41</t>
+          <t>1,0; 3,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,14</t>
+          <t>0,39; 2,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,49</t>
+          <t>0,57; 2,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,87</t>
+          <t>0,98; 2,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,7</t>
+          <t>0,91; 2,73</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,29</t>
+          <t>0,25; 2,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 4,49</t>
+          <t>0,8; 4,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,84</t>
+          <t>0,26; 2,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 5,16</t>
+          <t>1,01; 5,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,56</t>
+          <t>0,48; 2,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,0</t>
+          <t>0,24; 2,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 6,24</t>
+          <t>1,74; 5,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,31</t>
+          <t>0,74; 3,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,85</t>
+          <t>0,51; 1,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,95</t>
+          <t>0,65; 2,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,61</t>
+          <t>1,24; 3,68</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,44</t>
+          <t>1,15; 3,17</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,86</t>
+          <t>0,0; 2,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,48; 4,38</t>
+          <t>0,48; 3,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,45; 4,67</t>
+          <t>0,45; 4,78</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,75</t>
+          <t>0,0; 2,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 5,91</t>
+          <t>0,5; 5,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,94; 5,92</t>
+          <t>0,93; 5,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,12</t>
+          <t>0,0; 3,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,8</t>
+          <t>0,72; 3,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 3,49</t>
+          <t>0,64; 3,25</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,91</t>
+          <t>0,96; 3,91</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 3,37</t>
+          <t>0,45; 3,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,47</t>
+          <t>0,58; 2,45</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,46</t>
+          <t>0,35; 3,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,17 +1435,17 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,76</t>
+          <t>0,0; 2,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,59</t>
+          <t>0,17; 1,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,69</t>
+          <t>0,0; 1,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,17 +1455,17 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,86</t>
+          <t>0,36; 3,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,64; 3,4</t>
+          <t>0,65; 3,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,88</t>
+          <t>0,32; 1,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,19 +1475,19 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 2,55</t>
+          <t>0,39; 2,34</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,08</t>
+          <t>0,52; 1,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,49</t>
+          <t>0,48; 2,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,96</t>
+          <t>0,9; 3,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,69</t>
+          <t>0,58; 2,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 5,89</t>
+          <t>2,05; 5,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,98</t>
+          <t>0,76; 3,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 3,71</t>
+          <t>1,24; 3,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,56</t>
+          <t>0,64; 2,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 5,42</t>
+          <t>1,69; 5,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,36</t>
+          <t>0,85; 2,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,31; 2,98</t>
+          <t>1,3; 2,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,1</t>
+          <t>0,79; 2,21</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 4,94</t>
+          <t>2,12; 4,84</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,8</t>
+          <t>0,81; 2,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,19</t>
+          <t>0,41; 2,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,84</t>
+          <t>1,55; 3,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,97</t>
+          <t>0,32; 1,94</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,2</t>
+          <t>1,0; 3,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,54</t>
+          <t>0,26; 1,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,17</t>
+          <t>1,61; 4,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,82; 2,39</t>
+          <t>0,77; 2,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,59</t>
+          <t>1,15; 2,61</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0,5; 1,57</t>
+          <t>0,52; 1,63</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,5</t>
+          <t>1,77; 3,4</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,79</t>
+          <t>0,66; 1,81</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,94</t>
+          <t>1,04; 1,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,81</t>
+          <t>0,92; 1,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,39</t>
+          <t>1,35; 2,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,24; 2,32</t>
+          <t>1,24; 2,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,1</t>
+          <t>1,22; 2,12</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 1,62</t>
+          <t>0,91; 1,66</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,37</t>
+          <t>1,47; 2,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,7</t>
+          <t>1,68; 2,62</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,87</t>
+          <t>1,25; 1,84</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,99; 1,55</t>
+          <t>1,02; 1,61</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,18</t>
+          <t>1,52; 2,23</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 2,33</t>
+          <t>1,58; 2,31</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico privado en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>10852</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>953</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13437</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5792</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>6734</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4376</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>8338</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17586</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2975</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17813</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14130</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5522; 19017</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6172</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6759; 23429</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1836; 14297</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3080; 14237</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7052</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1688; 9833</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4839; 13935</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10579; 26484</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>954; 8795</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>10638; 29831</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>8267; 23465</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8153</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5013</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8032</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>10162</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7241</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6302</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7251</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14781</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>15394</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>11315</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15283</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>997; 13126</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3020; 18673</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1098; 12659</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3467; 15454</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5016; 17528</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3076; 13637</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2188; 14366</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3505; 14100</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8780; 25108</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8944; 26813</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6041; 21576</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>8871; 24257</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3539</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3817</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6225</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4446</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2768</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4596</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>4908</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>6786</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6307</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8413</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11133</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>11232</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>942; 9249</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>933; 8688</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2716; 12550</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1626; 10366</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>883; 7585</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>987; 12646</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1941; 10918</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3499; 11771</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2541; 14303</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3704; 17356</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6399; 18812</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6077; 18145</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2761</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7579</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>3610</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>7398</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4644</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>2816</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13023</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>8122</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7405</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>10396</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>16633</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15520</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>898; 7278</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2987; 17307</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>965; 10644</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3157; 16098</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1796; 9885</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>904; 7620</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6685; 22705</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>3513; 15391</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3722; 14423</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>4848; 19942</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9364; 27719</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>9095; 25014</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1690</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3126</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>3676</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4767</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>5952</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3450</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9078</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>5615</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4829</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5213</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1016; 8411</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>945; 10039</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4932</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1036; 10795</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2038; 11309</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0; 7225</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1491; 7804</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>2648; 13350</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4140; 16867</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1924; 13625</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2250; 9453</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>3731</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2038</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1441</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>934</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3819</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3933</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>4666</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>5858</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>5375</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>946; 9309</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2007</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6174</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>448; 3863</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4814</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1986</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>950; 9511</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1668; 8764</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>1733; 9509</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2001</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>2075; 12289</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>2722; 10092</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7600</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>11679</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>8603</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>21644</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>10268</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>14769</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9502</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>31195</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>17868</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>26448</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>18105</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>52839</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>2956; 14291</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5926; 20113</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3813; 18530</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>12801; 35982</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4830; 19649</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>8555; 25821</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4398; 17418</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>14348; 47210</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>10659; 29336</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>17584; 40124</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>10666; 29753</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>31173; 71245</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>11680</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>8317</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>18935</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>9274</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>14867</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>6224</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>21518</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>10180</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>26548</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>14541</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>40454</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>19454</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>6032; 20582</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3152; 16881</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>12011; 27690</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2947; 18003</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>7812; 24574</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2096; 12994</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>13209; 35557</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5496; 16361</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>17557; 39783</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>8332; 25886</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>28285; 54197</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>10892; 29821</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>43624</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>61538</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>43622</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>65388</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>79255</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>87246</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>126926</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>138661</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>33859; 61432</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>31342; 60654</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>45609; 79830</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>42980; 80472</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>41338; 71712</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>32042; 58504</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>51758; 86960</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>61378; 95841</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>83093; 122514</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>70533; 111291</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>104946; 153876</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>112788; 164489</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>